--- a/product_data/processing_metadata/C4/PROF_meta.xlsx
+++ b/product_data/processing_metadata/C4/PROF_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE.v0/processing_metadata/C4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{EEE577D7-02F7-48DE-BFA1-A7A142926E74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E394A531-AAF1-4E53-BCF8-3A3BCB6F6112}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{EEE577D7-02F7-48DE-BFA1-A7A142926E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E394A531-AAF1-4E53-BCF8-3A3BCB6F6112}"/>
   <bookViews>
-    <workbookView xWindow="32415" yWindow="2145" windowWidth="19770" windowHeight="11940" xr2:uid="{64B97871-A170-45B4-A294-5AEA4BC0E271}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{64B97871-A170-45B4-A294-5AEA4BC0E271}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -897,7 +897,7 @@
   <dimension ref="A1:BA20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/product_data/processing_metadata/C4/PROF_meta.xlsx
+++ b/product_data/processing_metadata/C4/PROF_meta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{EEE577D7-02F7-48DE-BFA1-A7A142926E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E394A531-AAF1-4E53-BCF8-3A3BCB6F6112}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{EEE577D7-02F7-48DE-BFA1-A7A142926E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D44B8103-258F-4DD1-ABF4-BE2042E1BF07}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{64B97871-A170-45B4-A294-5AEA4BC0E271}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64B97871-A170-45B4-A294-5AEA4BC0E271}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="175">
   <si>
     <t>33LG20110101</t>
   </si>
@@ -535,6 +535,30 @@
   </si>
   <si>
     <t>E:/Data_downloads/JGOFS/33RR19980108/all_ctd/TM</t>
+  </si>
+  <si>
+    <t>citation</t>
+  </si>
+  <si>
+    <t>PAL-LTER_prof</t>
+  </si>
+  <si>
+    <t>33RR19971202_prof</t>
+  </si>
+  <si>
+    <t>33RR19980108_prof</t>
+  </si>
+  <si>
+    <t>33RR19980213_prof</t>
+  </si>
+  <si>
+    <t>33RR19980108_prof2</t>
+  </si>
+  <si>
+    <t>33RR20050120_prof</t>
+  </si>
+  <si>
+    <t>33RR20070204_prof</t>
   </si>
 </sst>
 </file>
@@ -894,15 +918,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE09AFCF-A20C-400D-B673-54C37F3D477B}">
-  <dimension ref="A1:BA20"/>
+  <dimension ref="A1:BB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -937,133 +961,136 @@
         <v>28</v>
       </c>
       <c r="L1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>34</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>36</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>37</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>38</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>39</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>40</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>44</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>47</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>48</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>49</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>50</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>51</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>52</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>53</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>54</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>55</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>56</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>57</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>58</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>59</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>60</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>61</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>62</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>63</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>64</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>65</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>66</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>67</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>68</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>69</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -1094,54 +1121,54 @@
       <c r="J2" t="s">
         <v>79</v>
       </c>
-      <c r="M2" t="s">
-        <v>80</v>
+      <c r="L2" t="s">
+        <v>168</v>
       </c>
       <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s">
         <v>81</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>82</v>
       </c>
-      <c r="P2" t="s">
-        <v>80</v>
-      </c>
       <c r="Q2" t="s">
+        <v>80</v>
+      </c>
+      <c r="R2" t="s">
         <v>83</v>
       </c>
-      <c r="R2" t="s">
-        <v>80</v>
-      </c>
       <c r="S2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" t="s">
         <v>84</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>84</v>
       </c>
-      <c r="V2" t="s">
-        <v>80</v>
-      </c>
       <c r="W2" t="s">
         <v>80</v>
       </c>
       <c r="X2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" t="s">
         <v>85</v>
       </c>
-      <c r="Y2" t="s">
-        <v>80</v>
-      </c>
       <c r="Z2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA2" t="s">
         <v>86</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>87</v>
       </c>
-      <c r="AB2" t="s">
-        <v>80</v>
-      </c>
       <c r="AC2" t="s">
         <v>80</v>
       </c>
@@ -1152,41 +1179,41 @@
         <v>80</v>
       </c>
       <c r="AF2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG2" t="s">
         <v>88</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>89</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>90</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>91</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>92</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>93</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>94</v>
       </c>
-      <c r="AM2" t="s">
-        <v>80</v>
-      </c>
       <c r="AN2" t="s">
         <v>80</v>
       </c>
       <c r="AO2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP2" t="s">
         <v>95</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>96</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>80</v>
-      </c>
       <c r="AR2" t="s">
         <v>80</v>
       </c>
@@ -1197,28 +1224,31 @@
         <v>80</v>
       </c>
       <c r="AU2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV2" t="s">
         <v>97</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>98</v>
       </c>
-      <c r="AW2" t="s">
-        <v>80</v>
-      </c>
       <c r="AX2" t="s">
         <v>80</v>
       </c>
       <c r="AY2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>99</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>80</v>
-      </c>
       <c r="BA2" t="s">
         <v>80</v>
       </c>
+      <c r="BB2" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -1249,54 +1279,54 @@
       <c r="J3" t="s">
         <v>79</v>
       </c>
-      <c r="M3" t="s">
-        <v>80</v>
+      <c r="L3" t="s">
+        <v>168</v>
       </c>
       <c r="N3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" t="s">
         <v>81</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>82</v>
       </c>
-      <c r="P3" t="s">
-        <v>80</v>
-      </c>
       <c r="Q3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R3" t="s">
         <v>83</v>
       </c>
-      <c r="R3" t="s">
-        <v>80</v>
-      </c>
       <c r="S3" t="s">
+        <v>80</v>
+      </c>
+      <c r="T3" t="s">
         <v>84</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>85</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>84</v>
       </c>
-      <c r="V3" t="s">
-        <v>80</v>
-      </c>
       <c r="W3" t="s">
         <v>80</v>
       </c>
       <c r="X3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y3" t="s">
         <v>85</v>
       </c>
-      <c r="Y3" t="s">
-        <v>80</v>
-      </c>
       <c r="Z3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA3" t="s">
         <v>86</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>87</v>
       </c>
-      <c r="AB3" t="s">
-        <v>80</v>
-      </c>
       <c r="AC3" t="s">
         <v>80</v>
       </c>
@@ -1307,41 +1337,41 @@
         <v>80</v>
       </c>
       <c r="AF3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG3" t="s">
         <v>88</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>89</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>90</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>91</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>92</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>93</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>94</v>
       </c>
-      <c r="AM3" t="s">
-        <v>80</v>
-      </c>
       <c r="AN3" t="s">
         <v>80</v>
       </c>
       <c r="AO3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP3" t="s">
         <v>95</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AQ3" t="s">
         <v>96</v>
       </c>
-      <c r="AQ3" t="s">
-        <v>80</v>
-      </c>
       <c r="AR3" t="s">
         <v>80</v>
       </c>
@@ -1352,28 +1382,31 @@
         <v>80</v>
       </c>
       <c r="AU3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV3" t="s">
         <v>97</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AW3" t="s">
         <v>98</v>
       </c>
-      <c r="AW3" t="s">
-        <v>80</v>
-      </c>
       <c r="AX3" t="s">
         <v>80</v>
       </c>
       <c r="AY3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ3" t="s">
         <v>99</v>
       </c>
-      <c r="AZ3" t="s">
-        <v>80</v>
-      </c>
       <c r="BA3" t="s">
         <v>80</v>
       </c>
+      <c r="BB3" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1404,54 +1437,54 @@
       <c r="J4" t="s">
         <v>79</v>
       </c>
-      <c r="M4" t="s">
-        <v>80</v>
+      <c r="L4" t="s">
+        <v>168</v>
       </c>
       <c r="N4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" t="s">
         <v>81</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>82</v>
       </c>
-      <c r="P4" t="s">
-        <v>80</v>
-      </c>
       <c r="Q4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" t="s">
         <v>83</v>
       </c>
-      <c r="R4" t="s">
-        <v>80</v>
-      </c>
       <c r="S4" t="s">
+        <v>80</v>
+      </c>
+      <c r="T4" t="s">
         <v>84</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>85</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>84</v>
       </c>
-      <c r="V4" t="s">
-        <v>80</v>
-      </c>
       <c r="W4" t="s">
         <v>80</v>
       </c>
       <c r="X4" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y4" t="s">
         <v>85</v>
       </c>
-      <c r="Y4" t="s">
-        <v>80</v>
-      </c>
       <c r="Z4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA4" t="s">
         <v>86</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>87</v>
       </c>
-      <c r="AB4" t="s">
-        <v>80</v>
-      </c>
       <c r="AC4" t="s">
         <v>80</v>
       </c>
@@ -1462,41 +1495,41 @@
         <v>80</v>
       </c>
       <c r="AF4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG4" t="s">
         <v>88</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>89</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>90</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>91</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>92</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
         <v>93</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>94</v>
       </c>
-      <c r="AM4" t="s">
-        <v>80</v>
-      </c>
       <c r="AN4" t="s">
         <v>80</v>
       </c>
       <c r="AO4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP4" t="s">
         <v>95</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AQ4" t="s">
         <v>96</v>
       </c>
-      <c r="AQ4" t="s">
-        <v>80</v>
-      </c>
       <c r="AR4" t="s">
         <v>80</v>
       </c>
@@ -1507,28 +1540,31 @@
         <v>80</v>
       </c>
       <c r="AU4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV4" t="s">
         <v>97</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>98</v>
       </c>
-      <c r="AW4" t="s">
-        <v>80</v>
-      </c>
       <c r="AX4" t="s">
         <v>80</v>
       </c>
       <c r="AY4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ4" t="s">
         <v>99</v>
       </c>
-      <c r="AZ4" t="s">
-        <v>80</v>
-      </c>
       <c r="BA4" t="s">
         <v>80</v>
       </c>
+      <c r="BB4" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1559,54 +1595,54 @@
       <c r="J5" t="s">
         <v>79</v>
       </c>
-      <c r="M5" t="s">
-        <v>80</v>
+      <c r="L5" t="s">
+        <v>168</v>
       </c>
       <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
         <v>81</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>82</v>
       </c>
-      <c r="P5" t="s">
-        <v>80</v>
-      </c>
       <c r="Q5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R5" t="s">
         <v>83</v>
       </c>
-      <c r="R5" t="s">
-        <v>80</v>
-      </c>
       <c r="S5" t="s">
+        <v>80</v>
+      </c>
+      <c r="T5" t="s">
         <v>84</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>85</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>84</v>
       </c>
-      <c r="V5" t="s">
-        <v>80</v>
-      </c>
       <c r="W5" t="s">
         <v>80</v>
       </c>
       <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
         <v>85</v>
       </c>
-      <c r="Y5" t="s">
-        <v>80</v>
-      </c>
       <c r="Z5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA5" t="s">
         <v>86</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>87</v>
       </c>
-      <c r="AB5" t="s">
-        <v>80</v>
-      </c>
       <c r="AC5" t="s">
         <v>80</v>
       </c>
@@ -1617,41 +1653,41 @@
         <v>80</v>
       </c>
       <c r="AF5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG5" t="s">
         <v>88</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>89</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>90</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>91</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>92</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>93</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>94</v>
       </c>
-      <c r="AM5" t="s">
-        <v>80</v>
-      </c>
       <c r="AN5" t="s">
         <v>80</v>
       </c>
       <c r="AO5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP5" t="s">
         <v>95</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>96</v>
       </c>
-      <c r="AQ5" t="s">
-        <v>80</v>
-      </c>
       <c r="AR5" t="s">
         <v>80</v>
       </c>
@@ -1662,28 +1698,31 @@
         <v>80</v>
       </c>
       <c r="AU5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV5" t="s">
         <v>97</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AW5" t="s">
         <v>98</v>
       </c>
-      <c r="AW5" t="s">
-        <v>80</v>
-      </c>
       <c r="AX5" t="s">
         <v>80</v>
       </c>
       <c r="AY5" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ5" t="s">
         <v>99</v>
       </c>
-      <c r="AZ5" t="s">
-        <v>80</v>
-      </c>
       <c r="BA5" t="s">
         <v>80</v>
       </c>
+      <c r="BB5" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -1714,54 +1753,54 @@
       <c r="J6" t="s">
         <v>79</v>
       </c>
-      <c r="M6" t="s">
-        <v>80</v>
+      <c r="L6" t="s">
+        <v>168</v>
       </c>
       <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
         <v>81</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>82</v>
       </c>
-      <c r="P6" t="s">
-        <v>80</v>
-      </c>
       <c r="Q6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R6" t="s">
         <v>83</v>
       </c>
-      <c r="R6" t="s">
-        <v>80</v>
-      </c>
       <c r="S6" t="s">
+        <v>80</v>
+      </c>
+      <c r="T6" t="s">
         <v>84</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>85</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>84</v>
       </c>
-      <c r="V6" t="s">
-        <v>80</v>
-      </c>
       <c r="W6" t="s">
         <v>80</v>
       </c>
       <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
         <v>85</v>
       </c>
-      <c r="Y6" t="s">
-        <v>80</v>
-      </c>
       <c r="Z6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA6" t="s">
         <v>86</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>87</v>
       </c>
-      <c r="AB6" t="s">
-        <v>80</v>
-      </c>
       <c r="AC6" t="s">
         <v>80</v>
       </c>
@@ -1772,41 +1811,41 @@
         <v>80</v>
       </c>
       <c r="AF6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG6" t="s">
         <v>88</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>89</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>90</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>91</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>92</v>
       </c>
-      <c r="AK6" t="s">
+      <c r="AL6" t="s">
         <v>93</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>94</v>
       </c>
-      <c r="AM6" t="s">
-        <v>80</v>
-      </c>
       <c r="AN6" t="s">
         <v>80</v>
       </c>
       <c r="AO6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP6" t="s">
         <v>95</v>
       </c>
-      <c r="AP6" t="s">
+      <c r="AQ6" t="s">
         <v>96</v>
       </c>
-      <c r="AQ6" t="s">
-        <v>80</v>
-      </c>
       <c r="AR6" t="s">
         <v>80</v>
       </c>
@@ -1817,28 +1856,31 @@
         <v>80</v>
       </c>
       <c r="AU6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV6" t="s">
         <v>97</v>
       </c>
-      <c r="AV6" t="s">
+      <c r="AW6" t="s">
         <v>98</v>
       </c>
-      <c r="AW6" t="s">
-        <v>80</v>
-      </c>
       <c r="AX6" t="s">
         <v>80</v>
       </c>
       <c r="AY6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>99</v>
       </c>
-      <c r="AZ6" t="s">
-        <v>80</v>
-      </c>
       <c r="BA6" t="s">
         <v>80</v>
       </c>
+      <c r="BB6" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -1869,54 +1911,54 @@
       <c r="J7" t="s">
         <v>79</v>
       </c>
-      <c r="M7" t="s">
-        <v>80</v>
+      <c r="L7" t="s">
+        <v>168</v>
       </c>
       <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
         <v>81</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>82</v>
       </c>
-      <c r="P7" t="s">
-        <v>80</v>
-      </c>
       <c r="Q7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" t="s">
         <v>83</v>
       </c>
-      <c r="R7" t="s">
-        <v>80</v>
-      </c>
       <c r="S7" t="s">
+        <v>80</v>
+      </c>
+      <c r="T7" t="s">
         <v>84</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>85</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>84</v>
       </c>
-      <c r="V7" t="s">
-        <v>80</v>
-      </c>
       <c r="W7" t="s">
         <v>80</v>
       </c>
       <c r="X7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y7" t="s">
         <v>85</v>
       </c>
-      <c r="Y7" t="s">
-        <v>80</v>
-      </c>
       <c r="Z7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA7" t="s">
         <v>86</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>87</v>
       </c>
-      <c r="AB7" t="s">
-        <v>80</v>
-      </c>
       <c r="AC7" t="s">
         <v>80</v>
       </c>
@@ -1927,41 +1969,41 @@
         <v>80</v>
       </c>
       <c r="AF7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG7" t="s">
         <v>88</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>89</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>90</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>91</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>92</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AL7" t="s">
         <v>93</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>94</v>
       </c>
-      <c r="AM7" t="s">
-        <v>80</v>
-      </c>
       <c r="AN7" t="s">
         <v>80</v>
       </c>
       <c r="AO7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP7" t="s">
         <v>95</v>
       </c>
-      <c r="AP7" t="s">
+      <c r="AQ7" t="s">
         <v>96</v>
       </c>
-      <c r="AQ7" t="s">
-        <v>80</v>
-      </c>
       <c r="AR7" t="s">
         <v>80</v>
       </c>
@@ -1972,28 +2014,31 @@
         <v>80</v>
       </c>
       <c r="AU7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV7" t="s">
         <v>97</v>
       </c>
-      <c r="AV7" t="s">
+      <c r="AW7" t="s">
         <v>98</v>
       </c>
-      <c r="AW7" t="s">
-        <v>80</v>
-      </c>
       <c r="AX7" t="s">
         <v>80</v>
       </c>
       <c r="AY7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ7" t="s">
         <v>99</v>
       </c>
-      <c r="AZ7" t="s">
-        <v>80</v>
-      </c>
       <c r="BA7" t="s">
         <v>80</v>
       </c>
+      <c r="BB7" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -2024,54 +2069,54 @@
       <c r="J8" t="s">
         <v>79</v>
       </c>
-      <c r="M8" t="s">
-        <v>80</v>
+      <c r="L8" t="s">
+        <v>168</v>
       </c>
       <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" t="s">
         <v>81</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>82</v>
       </c>
-      <c r="P8" t="s">
-        <v>80</v>
-      </c>
       <c r="Q8" t="s">
+        <v>80</v>
+      </c>
+      <c r="R8" t="s">
         <v>83</v>
       </c>
-      <c r="R8" t="s">
-        <v>80</v>
-      </c>
       <c r="S8" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" t="s">
         <v>84</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>85</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>84</v>
       </c>
-      <c r="V8" t="s">
-        <v>80</v>
-      </c>
       <c r="W8" t="s">
         <v>80</v>
       </c>
       <c r="X8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y8" t="s">
         <v>85</v>
       </c>
-      <c r="Y8" t="s">
-        <v>80</v>
-      </c>
       <c r="Z8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA8" t="s">
         <v>86</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>87</v>
       </c>
-      <c r="AB8" t="s">
-        <v>80</v>
-      </c>
       <c r="AC8" t="s">
         <v>80</v>
       </c>
@@ -2082,41 +2127,41 @@
         <v>80</v>
       </c>
       <c r="AF8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG8" t="s">
         <v>88</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>89</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>91</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>92</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>93</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>94</v>
       </c>
-      <c r="AM8" t="s">
-        <v>80</v>
-      </c>
       <c r="AN8" t="s">
         <v>80</v>
       </c>
       <c r="AO8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP8" t="s">
         <v>95</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" t="s">
         <v>96</v>
       </c>
-      <c r="AQ8" t="s">
-        <v>80</v>
-      </c>
       <c r="AR8" t="s">
         <v>80</v>
       </c>
@@ -2127,28 +2172,31 @@
         <v>80</v>
       </c>
       <c r="AU8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV8" t="s">
         <v>97</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AW8" t="s">
         <v>98</v>
       </c>
-      <c r="AW8" t="s">
-        <v>80</v>
-      </c>
       <c r="AX8" t="s">
         <v>80</v>
       </c>
       <c r="AY8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>99</v>
       </c>
-      <c r="AZ8" t="s">
-        <v>80</v>
-      </c>
       <c r="BA8" t="s">
         <v>80</v>
       </c>
+      <c r="BB8" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -2179,54 +2227,54 @@
       <c r="J9" t="s">
         <v>79</v>
       </c>
-      <c r="M9" t="s">
-        <v>80</v>
+      <c r="L9" t="s">
+        <v>168</v>
       </c>
       <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
         <v>81</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>82</v>
       </c>
-      <c r="P9" t="s">
-        <v>80</v>
-      </c>
       <c r="Q9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" t="s">
         <v>83</v>
       </c>
-      <c r="R9" t="s">
-        <v>80</v>
-      </c>
       <c r="S9" t="s">
+        <v>80</v>
+      </c>
+      <c r="T9" t="s">
         <v>84</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>85</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>84</v>
       </c>
-      <c r="V9" t="s">
-        <v>80</v>
-      </c>
       <c r="W9" t="s">
         <v>80</v>
       </c>
       <c r="X9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y9" t="s">
         <v>85</v>
       </c>
-      <c r="Y9" t="s">
-        <v>80</v>
-      </c>
       <c r="Z9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA9" t="s">
         <v>86</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>87</v>
       </c>
-      <c r="AB9" t="s">
-        <v>80</v>
-      </c>
       <c r="AC9" t="s">
         <v>80</v>
       </c>
@@ -2237,41 +2285,41 @@
         <v>80</v>
       </c>
       <c r="AF9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG9" t="s">
         <v>88</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>89</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>90</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>91</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AK9" t="s">
         <v>92</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AL9" t="s">
         <v>93</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>94</v>
       </c>
-      <c r="AM9" t="s">
-        <v>80</v>
-      </c>
       <c r="AN9" t="s">
         <v>80</v>
       </c>
       <c r="AO9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP9" t="s">
         <v>95</v>
       </c>
-      <c r="AP9" t="s">
+      <c r="AQ9" t="s">
         <v>96</v>
       </c>
-      <c r="AQ9" t="s">
-        <v>80</v>
-      </c>
       <c r="AR9" t="s">
         <v>80</v>
       </c>
@@ -2282,28 +2330,31 @@
         <v>80</v>
       </c>
       <c r="AU9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV9" t="s">
         <v>97</v>
       </c>
-      <c r="AV9" t="s">
+      <c r="AW9" t="s">
         <v>98</v>
       </c>
-      <c r="AW9" t="s">
-        <v>80</v>
-      </c>
       <c r="AX9" t="s">
         <v>80</v>
       </c>
       <c r="AY9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ9" t="s">
         <v>99</v>
       </c>
-      <c r="AZ9" t="s">
-        <v>80</v>
-      </c>
       <c r="BA9" t="s">
         <v>80</v>
       </c>
+      <c r="BB9" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -2334,54 +2385,54 @@
       <c r="J10" t="s">
         <v>79</v>
       </c>
-      <c r="M10" t="s">
-        <v>80</v>
+      <c r="L10" t="s">
+        <v>168</v>
       </c>
       <c r="N10" t="s">
+        <v>80</v>
+      </c>
+      <c r="O10" t="s">
         <v>81</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>82</v>
       </c>
-      <c r="P10" t="s">
-        <v>80</v>
-      </c>
       <c r="Q10" t="s">
+        <v>80</v>
+      </c>
+      <c r="R10" t="s">
         <v>83</v>
       </c>
-      <c r="R10" t="s">
-        <v>80</v>
-      </c>
       <c r="S10" t="s">
+        <v>80</v>
+      </c>
+      <c r="T10" t="s">
         <v>84</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>85</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>84</v>
       </c>
-      <c r="V10" t="s">
-        <v>80</v>
-      </c>
       <c r="W10" t="s">
         <v>80</v>
       </c>
       <c r="X10" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y10" t="s">
         <v>85</v>
       </c>
-      <c r="Y10" t="s">
-        <v>80</v>
-      </c>
       <c r="Z10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA10" t="s">
         <v>86</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>87</v>
       </c>
-      <c r="AB10" t="s">
-        <v>80</v>
-      </c>
       <c r="AC10" t="s">
         <v>80</v>
       </c>
@@ -2392,41 +2443,41 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG10" t="s">
         <v>88</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>89</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>90</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>91</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
         <v>92</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
         <v>93</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>94</v>
       </c>
-      <c r="AM10" t="s">
-        <v>80</v>
-      </c>
       <c r="AN10" t="s">
         <v>80</v>
       </c>
       <c r="AO10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP10" t="s">
         <v>95</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AQ10" t="s">
         <v>96</v>
       </c>
-      <c r="AQ10" t="s">
-        <v>80</v>
-      </c>
       <c r="AR10" t="s">
         <v>80</v>
       </c>
@@ -2437,28 +2488,31 @@
         <v>80</v>
       </c>
       <c r="AU10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV10" t="s">
         <v>97</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AW10" t="s">
         <v>98</v>
       </c>
-      <c r="AW10" t="s">
-        <v>80</v>
-      </c>
       <c r="AX10" t="s">
         <v>80</v>
       </c>
       <c r="AY10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>99</v>
       </c>
-      <c r="AZ10" t="s">
-        <v>80</v>
-      </c>
       <c r="BA10" t="s">
         <v>80</v>
       </c>
+      <c r="BB10" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -2489,54 +2543,54 @@
       <c r="J11" t="s">
         <v>79</v>
       </c>
-      <c r="M11" t="s">
-        <v>80</v>
+      <c r="L11" t="s">
+        <v>168</v>
       </c>
       <c r="N11" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" t="s">
         <v>81</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>82</v>
       </c>
-      <c r="P11" t="s">
-        <v>80</v>
-      </c>
       <c r="Q11" t="s">
+        <v>80</v>
+      </c>
+      <c r="R11" t="s">
         <v>83</v>
       </c>
-      <c r="R11" t="s">
-        <v>80</v>
-      </c>
       <c r="S11" t="s">
+        <v>80</v>
+      </c>
+      <c r="T11" t="s">
         <v>84</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>85</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>84</v>
       </c>
-      <c r="V11" t="s">
-        <v>80</v>
-      </c>
       <c r="W11" t="s">
         <v>80</v>
       </c>
       <c r="X11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y11" t="s">
         <v>85</v>
       </c>
-      <c r="Y11" t="s">
-        <v>80</v>
-      </c>
       <c r="Z11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA11" t="s">
         <v>86</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>87</v>
       </c>
-      <c r="AB11" t="s">
-        <v>80</v>
-      </c>
       <c r="AC11" t="s">
         <v>80</v>
       </c>
@@ -2547,41 +2601,41 @@
         <v>80</v>
       </c>
       <c r="AF11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG11" t="s">
         <v>88</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>89</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>90</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>91</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AK11" t="s">
         <v>92</v>
       </c>
-      <c r="AK11" t="s">
+      <c r="AL11" t="s">
         <v>93</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>94</v>
       </c>
-      <c r="AM11" t="s">
-        <v>80</v>
-      </c>
       <c r="AN11" t="s">
         <v>80</v>
       </c>
       <c r="AO11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP11" t="s">
         <v>95</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AQ11" t="s">
         <v>96</v>
       </c>
-      <c r="AQ11" t="s">
-        <v>80</v>
-      </c>
       <c r="AR11" t="s">
         <v>80</v>
       </c>
@@ -2592,28 +2646,31 @@
         <v>80</v>
       </c>
       <c r="AU11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV11" t="s">
         <v>97</v>
       </c>
-      <c r="AV11" t="s">
+      <c r="AW11" t="s">
         <v>98</v>
       </c>
-      <c r="AW11" t="s">
-        <v>80</v>
-      </c>
       <c r="AX11" t="s">
         <v>80</v>
       </c>
       <c r="AY11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ11" t="s">
         <v>99</v>
       </c>
-      <c r="AZ11" t="s">
-        <v>80</v>
-      </c>
       <c r="BA11" t="s">
         <v>80</v>
       </c>
+      <c r="BB11" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -2644,54 +2701,54 @@
       <c r="J12" t="s">
         <v>79</v>
       </c>
-      <c r="M12" t="s">
-        <v>80</v>
+      <c r="L12" t="s">
+        <v>168</v>
       </c>
       <c r="N12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O12" t="s">
         <v>81</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>82</v>
       </c>
-      <c r="P12" t="s">
-        <v>80</v>
-      </c>
       <c r="Q12" t="s">
+        <v>80</v>
+      </c>
+      <c r="R12" t="s">
         <v>83</v>
       </c>
-      <c r="R12" t="s">
-        <v>80</v>
-      </c>
       <c r="S12" t="s">
+        <v>80</v>
+      </c>
+      <c r="T12" t="s">
         <v>84</v>
       </c>
-      <c r="T12" t="s">
+      <c r="U12" t="s">
         <v>85</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>84</v>
       </c>
-      <c r="V12" t="s">
-        <v>80</v>
-      </c>
       <c r="W12" t="s">
         <v>80</v>
       </c>
       <c r="X12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y12" t="s">
         <v>85</v>
       </c>
-      <c r="Y12" t="s">
-        <v>80</v>
-      </c>
       <c r="Z12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA12" t="s">
         <v>86</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>87</v>
       </c>
-      <c r="AB12" t="s">
-        <v>80</v>
-      </c>
       <c r="AC12" t="s">
         <v>80</v>
       </c>
@@ -2702,41 +2759,41 @@
         <v>80</v>
       </c>
       <c r="AF12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG12" t="s">
         <v>88</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>89</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>90</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
         <v>91</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AK12" t="s">
         <v>92</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AL12" t="s">
         <v>93</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>94</v>
       </c>
-      <c r="AM12" t="s">
-        <v>80</v>
-      </c>
       <c r="AN12" t="s">
         <v>80</v>
       </c>
       <c r="AO12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP12" t="s">
         <v>95</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AQ12" t="s">
         <v>96</v>
       </c>
-      <c r="AQ12" t="s">
-        <v>80</v>
-      </c>
       <c r="AR12" t="s">
         <v>80</v>
       </c>
@@ -2747,28 +2804,31 @@
         <v>80</v>
       </c>
       <c r="AU12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV12" t="s">
         <v>97</v>
       </c>
-      <c r="AV12" t="s">
+      <c r="AW12" t="s">
         <v>98</v>
       </c>
-      <c r="AW12" t="s">
-        <v>80</v>
-      </c>
       <c r="AX12" t="s">
         <v>80</v>
       </c>
       <c r="AY12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ12" t="s">
         <v>99</v>
       </c>
-      <c r="AZ12" t="s">
-        <v>80</v>
-      </c>
       <c r="BA12" t="s">
         <v>80</v>
       </c>
+      <c r="BB12" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -2799,54 +2859,54 @@
       <c r="J13" t="s">
         <v>79</v>
       </c>
-      <c r="M13" t="s">
-        <v>80</v>
+      <c r="L13" t="s">
+        <v>168</v>
       </c>
       <c r="N13" t="s">
+        <v>80</v>
+      </c>
+      <c r="O13" t="s">
         <v>81</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>82</v>
       </c>
-      <c r="P13" t="s">
-        <v>80</v>
-      </c>
       <c r="Q13" t="s">
+        <v>80</v>
+      </c>
+      <c r="R13" t="s">
         <v>83</v>
       </c>
-      <c r="R13" t="s">
-        <v>80</v>
-      </c>
       <c r="S13" t="s">
+        <v>80</v>
+      </c>
+      <c r="T13" t="s">
         <v>84</v>
       </c>
-      <c r="T13" t="s">
+      <c r="U13" t="s">
         <v>85</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>84</v>
       </c>
-      <c r="V13" t="s">
-        <v>80</v>
-      </c>
       <c r="W13" t="s">
         <v>80</v>
       </c>
       <c r="X13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y13" t="s">
         <v>85</v>
       </c>
-      <c r="Y13" t="s">
-        <v>80</v>
-      </c>
       <c r="Z13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA13" t="s">
         <v>86</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>87</v>
       </c>
-      <c r="AB13" t="s">
-        <v>80</v>
-      </c>
       <c r="AC13" t="s">
         <v>80</v>
       </c>
@@ -2857,41 +2917,41 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG13" t="s">
         <v>88</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>89</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>90</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>91</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AK13" t="s">
         <v>92</v>
       </c>
-      <c r="AK13" t="s">
+      <c r="AL13" t="s">
         <v>93</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
         <v>94</v>
       </c>
-      <c r="AM13" t="s">
-        <v>80</v>
-      </c>
       <c r="AN13" t="s">
         <v>80</v>
       </c>
       <c r="AO13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP13" t="s">
         <v>95</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AQ13" t="s">
         <v>96</v>
       </c>
-      <c r="AQ13" t="s">
-        <v>80</v>
-      </c>
       <c r="AR13" t="s">
         <v>80</v>
       </c>
@@ -2902,28 +2962,31 @@
         <v>80</v>
       </c>
       <c r="AU13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV13" t="s">
         <v>97</v>
       </c>
-      <c r="AV13" t="s">
+      <c r="AW13" t="s">
         <v>98</v>
       </c>
-      <c r="AW13" t="s">
-        <v>80</v>
-      </c>
       <c r="AX13" t="s">
         <v>80</v>
       </c>
       <c r="AY13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ13" t="s">
         <v>99</v>
       </c>
-      <c r="AZ13" t="s">
-        <v>80</v>
-      </c>
       <c r="BA13" t="s">
         <v>80</v>
       </c>
+      <c r="BB13" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -2954,54 +3017,54 @@
       <c r="J14" t="s">
         <v>79</v>
       </c>
-      <c r="M14" t="s">
-        <v>80</v>
+      <c r="L14" t="s">
+        <v>168</v>
       </c>
       <c r="N14" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" t="s">
         <v>81</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>82</v>
       </c>
-      <c r="P14" t="s">
-        <v>80</v>
-      </c>
       <c r="Q14" t="s">
+        <v>80</v>
+      </c>
+      <c r="R14" t="s">
         <v>83</v>
       </c>
-      <c r="R14" t="s">
-        <v>80</v>
-      </c>
       <c r="S14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T14" t="s">
         <v>84</v>
       </c>
-      <c r="T14" t="s">
+      <c r="U14" t="s">
         <v>85</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>84</v>
       </c>
-      <c r="V14" t="s">
-        <v>80</v>
-      </c>
       <c r="W14" t="s">
         <v>80</v>
       </c>
       <c r="X14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y14" t="s">
         <v>85</v>
       </c>
-      <c r="Y14" t="s">
-        <v>80</v>
-      </c>
       <c r="Z14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA14" t="s">
         <v>86</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>87</v>
       </c>
-      <c r="AB14" t="s">
-        <v>80</v>
-      </c>
       <c r="AC14" t="s">
         <v>80</v>
       </c>
@@ -3012,41 +3075,41 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG14" t="s">
         <v>88</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>89</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>90</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AJ14" t="s">
         <v>91</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AK14" t="s">
         <v>92</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AL14" t="s">
         <v>93</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>94</v>
       </c>
-      <c r="AM14" t="s">
-        <v>80</v>
-      </c>
       <c r="AN14" t="s">
         <v>80</v>
       </c>
       <c r="AO14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP14" t="s">
         <v>95</v>
       </c>
-      <c r="AP14" t="s">
+      <c r="AQ14" t="s">
         <v>96</v>
       </c>
-      <c r="AQ14" t="s">
-        <v>80</v>
-      </c>
       <c r="AR14" t="s">
         <v>80</v>
       </c>
@@ -3057,28 +3120,31 @@
         <v>80</v>
       </c>
       <c r="AU14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV14" t="s">
         <v>97</v>
       </c>
-      <c r="AV14" t="s">
+      <c r="AW14" t="s">
         <v>98</v>
       </c>
-      <c r="AW14" t="s">
-        <v>80</v>
-      </c>
       <c r="AX14" t="s">
         <v>80</v>
       </c>
       <c r="AY14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ14" t="s">
         <v>99</v>
       </c>
-      <c r="AZ14" t="s">
-        <v>80</v>
-      </c>
       <c r="BA14" t="s">
         <v>80</v>
       </c>
+      <c r="BB14" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -3109,111 +3175,111 @@
       <c r="J15" t="s">
         <v>136</v>
       </c>
-      <c r="M15" t="s">
-        <v>80</v>
+      <c r="L15" t="s">
+        <v>169</v>
       </c>
       <c r="N15" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15" t="s">
         <v>137</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>82</v>
       </c>
-      <c r="P15" t="s">
-        <v>80</v>
-      </c>
       <c r="Q15" t="s">
+        <v>80</v>
+      </c>
+      <c r="R15" t="s">
         <v>159</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>158</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>138</v>
       </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
         <v>122</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>139</v>
       </c>
-      <c r="V15" t="s">
-        <v>80</v>
-      </c>
       <c r="W15" t="s">
+        <v>80</v>
+      </c>
+      <c r="X15" t="s">
         <v>140</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>141</v>
       </c>
-      <c r="Y15" t="s">
-        <v>80</v>
-      </c>
       <c r="Z15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA15" t="s">
         <v>142</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>143</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>144</v>
       </c>
-      <c r="AC15" t="s">
-        <v>80</v>
-      </c>
       <c r="AD15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE15" t="s">
         <v>145</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>146</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>88</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>147</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>90</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
         <v>148</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AK15" t="s">
         <v>129</v>
       </c>
-      <c r="AK15" t="s">
+      <c r="AL15" t="s">
         <v>149</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AM15" t="s">
         <v>150</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AN15" t="s">
         <v>151</v>
       </c>
-      <c r="AN15" t="s">
+      <c r="AO15" t="s">
         <v>130</v>
       </c>
-      <c r="AO15" t="s">
+      <c r="AP15" t="s">
         <v>152</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AQ15" t="s">
         <v>96</v>
       </c>
-      <c r="AQ15" t="s">
+      <c r="AR15" t="s">
         <v>153</v>
       </c>
-      <c r="AR15" t="s">
+      <c r="AS15" t="s">
         <v>154</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AT15" t="s">
         <v>155</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AU15" t="s">
         <v>156</v>
       </c>
-      <c r="AU15" t="s">
-        <v>80</v>
-      </c>
       <c r="AV15" t="s">
         <v>80</v>
       </c>
@@ -3232,8 +3298,11 @@
       <c r="BA15" t="s">
         <v>80</v>
       </c>
+      <c r="BB15" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -3264,111 +3333,111 @@
       <c r="J16" t="s">
         <v>136</v>
       </c>
-      <c r="M16" t="s">
-        <v>80</v>
+      <c r="L16" t="s">
+        <v>170</v>
       </c>
       <c r="N16" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" t="s">
         <v>137</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>82</v>
       </c>
-      <c r="P16" t="s">
-        <v>80</v>
-      </c>
       <c r="Q16" t="s">
+        <v>80</v>
+      </c>
+      <c r="R16" t="s">
         <v>159</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>158</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>138</v>
       </c>
-      <c r="T16" t="s">
+      <c r="U16" t="s">
         <v>122</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>139</v>
       </c>
-      <c r="V16" t="s">
-        <v>80</v>
-      </c>
       <c r="W16" t="s">
+        <v>80</v>
+      </c>
+      <c r="X16" t="s">
         <v>140</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>141</v>
       </c>
-      <c r="Y16" t="s">
-        <v>80</v>
-      </c>
       <c r="Z16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA16" t="s">
         <v>142</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>143</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>144</v>
       </c>
-      <c r="AC16" t="s">
-        <v>80</v>
-      </c>
       <c r="AD16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE16" t="s">
         <v>145</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>146</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>88</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>147</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>90</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
         <v>148</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AK16" t="s">
         <v>129</v>
       </c>
-      <c r="AK16" t="s">
+      <c r="AL16" t="s">
         <v>149</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AM16" t="s">
         <v>150</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AN16" t="s">
         <v>151</v>
       </c>
-      <c r="AN16" t="s">
+      <c r="AO16" t="s">
         <v>130</v>
       </c>
-      <c r="AO16" t="s">
+      <c r="AP16" t="s">
         <v>152</v>
       </c>
-      <c r="AP16" t="s">
+      <c r="AQ16" t="s">
         <v>96</v>
       </c>
-      <c r="AQ16" t="s">
+      <c r="AR16" t="s">
         <v>153</v>
       </c>
-      <c r="AR16" t="s">
+      <c r="AS16" t="s">
         <v>154</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AT16" t="s">
         <v>155</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AU16" t="s">
         <v>156</v>
       </c>
-      <c r="AU16" t="s">
-        <v>80</v>
-      </c>
       <c r="AV16" t="s">
         <v>80</v>
       </c>
@@ -3387,8 +3456,11 @@
       <c r="BA16" t="s">
         <v>80</v>
       </c>
+      <c r="BB16" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -3419,111 +3491,111 @@
       <c r="J17" t="s">
         <v>136</v>
       </c>
-      <c r="M17" t="s">
-        <v>80</v>
+      <c r="L17" t="s">
+        <v>171</v>
       </c>
       <c r="N17" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" t="s">
         <v>137</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>82</v>
       </c>
-      <c r="P17" t="s">
-        <v>80</v>
-      </c>
       <c r="Q17" t="s">
+        <v>80</v>
+      </c>
+      <c r="R17" t="s">
         <v>159</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>158</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>138</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>122</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>139</v>
       </c>
-      <c r="V17" t="s">
-        <v>80</v>
-      </c>
       <c r="W17" t="s">
+        <v>80</v>
+      </c>
+      <c r="X17" t="s">
         <v>140</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>141</v>
       </c>
-      <c r="Y17" t="s">
-        <v>80</v>
-      </c>
       <c r="Z17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA17" t="s">
         <v>142</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>143</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>144</v>
       </c>
-      <c r="AC17" t="s">
-        <v>80</v>
-      </c>
       <c r="AD17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE17" t="s">
         <v>145</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>146</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>88</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>147</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
         <v>90</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
         <v>148</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
         <v>129</v>
       </c>
-      <c r="AK17" t="s">
+      <c r="AL17" t="s">
         <v>149</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AM17" t="s">
         <v>150</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AN17" t="s">
         <v>151</v>
       </c>
-      <c r="AN17" t="s">
+      <c r="AO17" t="s">
         <v>130</v>
       </c>
-      <c r="AO17" t="s">
+      <c r="AP17" t="s">
         <v>152</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AQ17" t="s">
         <v>96</v>
       </c>
-      <c r="AQ17" t="s">
+      <c r="AR17" t="s">
         <v>153</v>
       </c>
-      <c r="AR17" t="s">
+      <c r="AS17" t="s">
         <v>154</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AT17" t="s">
         <v>155</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AU17" t="s">
         <v>156</v>
       </c>
-      <c r="AU17" t="s">
-        <v>80</v>
-      </c>
       <c r="AV17" t="s">
         <v>80</v>
       </c>
@@ -3542,8 +3614,11 @@
       <c r="BA17" t="s">
         <v>80</v>
       </c>
+      <c r="BB17" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -3574,54 +3649,54 @@
       <c r="J18" t="s">
         <v>117</v>
       </c>
-      <c r="M18" t="s">
+      <c r="L18" t="s">
+        <v>173</v>
+      </c>
+      <c r="N18" t="s">
         <v>118</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>81</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>82</v>
       </c>
-      <c r="P18" t="s">
-        <v>80</v>
-      </c>
       <c r="Q18" t="s">
+        <v>80</v>
+      </c>
+      <c r="R18" t="s">
         <v>119</v>
       </c>
-      <c r="R18" t="s">
+      <c r="S18" t="s">
         <v>120</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>121</v>
       </c>
-      <c r="T18" t="s">
+      <c r="U18" t="s">
         <v>122</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>123</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>124</v>
       </c>
-      <c r="W18" t="s">
-        <v>80</v>
-      </c>
       <c r="X18" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y18" t="s">
         <v>125</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>126</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>127</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>128</v>
       </c>
-      <c r="AB18" t="s">
-        <v>80</v>
-      </c>
       <c r="AC18" t="s">
         <v>80</v>
       </c>
@@ -3632,44 +3707,44 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG18" t="s">
         <v>88</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>50</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AI18" t="s">
         <v>90</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AJ18" t="s">
         <v>52</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AK18" t="s">
         <v>129</v>
       </c>
-      <c r="AK18" t="s">
+      <c r="AL18" t="s">
         <v>54</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AM18" t="s">
         <v>94</v>
       </c>
-      <c r="AM18" t="s">
+      <c r="AN18" t="s">
         <v>56</v>
       </c>
-      <c r="AN18" t="s">
+      <c r="AO18" t="s">
         <v>130</v>
       </c>
-      <c r="AO18" t="s">
+      <c r="AP18" t="s">
         <v>58</v>
       </c>
-      <c r="AP18" t="s">
-        <v>80</v>
-      </c>
       <c r="AQ18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR18" t="s">
         <v>60</v>
       </c>
-      <c r="AR18" t="s">
-        <v>80</v>
-      </c>
       <c r="AS18" t="s">
         <v>80</v>
       </c>
@@ -3697,8 +3772,11 @@
       <c r="BA18" t="s">
         <v>80</v>
       </c>
+      <c r="BB18" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -3729,54 +3807,54 @@
       <c r="J19" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="M19" t="s">
+      <c r="K19" t="s">
+        <v>174</v>
+      </c>
+      <c r="N19" t="s">
         <v>118</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>81</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>82</v>
       </c>
-      <c r="P19" t="s">
-        <v>80</v>
-      </c>
       <c r="Q19" t="s">
+        <v>80</v>
+      </c>
+      <c r="R19" t="s">
         <v>119</v>
       </c>
-      <c r="R19" t="s">
+      <c r="S19" t="s">
         <v>120</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>121</v>
       </c>
-      <c r="T19" t="s">
+      <c r="U19" t="s">
         <v>122</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>123</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>124</v>
       </c>
-      <c r="W19" t="s">
-        <v>80</v>
-      </c>
       <c r="X19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y19" t="s">
         <v>125</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>126</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>127</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>128</v>
       </c>
-      <c r="AB19" t="s">
-        <v>80</v>
-      </c>
       <c r="AC19" t="s">
         <v>80</v>
       </c>
@@ -3787,44 +3865,44 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG19" t="s">
         <v>88</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>50</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AI19" t="s">
         <v>90</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AJ19" t="s">
         <v>52</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AK19" t="s">
         <v>129</v>
       </c>
-      <c r="AK19" t="s">
+      <c r="AL19" t="s">
         <v>54</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AM19" t="s">
         <v>94</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AN19" t="s">
         <v>56</v>
       </c>
-      <c r="AN19" t="s">
+      <c r="AO19" t="s">
         <v>130</v>
       </c>
-      <c r="AO19" t="s">
-        <v>80</v>
-      </c>
       <c r="AP19" t="s">
         <v>80</v>
       </c>
       <c r="AQ19" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR19" t="s">
         <v>60</v>
       </c>
-      <c r="AR19" t="s">
-        <v>80</v>
-      </c>
       <c r="AS19" t="s">
         <v>80</v>
       </c>
@@ -3852,8 +3930,11 @@
       <c r="BA19" t="s">
         <v>80</v>
       </c>
+      <c r="BB19" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -3884,111 +3965,111 @@
       <c r="J20" t="s">
         <v>136</v>
       </c>
-      <c r="M20" t="s">
-        <v>80</v>
+      <c r="L20" t="s">
+        <v>172</v>
       </c>
       <c r="N20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20" t="s">
         <v>137</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>82</v>
       </c>
-      <c r="P20" t="s">
-        <v>80</v>
-      </c>
       <c r="Q20" t="s">
+        <v>80</v>
+      </c>
+      <c r="R20" t="s">
         <v>159</v>
       </c>
-      <c r="R20" t="s">
+      <c r="S20" t="s">
         <v>158</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>138</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>165</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>139</v>
       </c>
-      <c r="V20" t="s">
-        <v>80</v>
-      </c>
       <c r="W20" t="s">
+        <v>80</v>
+      </c>
+      <c r="X20" t="s">
         <v>140</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>141</v>
       </c>
-      <c r="Y20" t="s">
-        <v>80</v>
-      </c>
       <c r="Z20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA20" t="s">
         <v>142</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>143</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>144</v>
       </c>
-      <c r="AC20" t="s">
-        <v>80</v>
-      </c>
       <c r="AD20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE20" t="s">
         <v>145</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>146</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>88</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
         <v>147</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AI20" t="s">
         <v>90</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AJ20" t="s">
         <v>148</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AK20" t="s">
         <v>129</v>
       </c>
-      <c r="AK20" t="s">
+      <c r="AL20" t="s">
         <v>149</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AM20" t="s">
         <v>150</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AN20" t="s">
         <v>151</v>
       </c>
-      <c r="AN20" t="s">
+      <c r="AO20" t="s">
         <v>130</v>
       </c>
-      <c r="AO20" t="s">
+      <c r="AP20" t="s">
         <v>152</v>
       </c>
-      <c r="AP20" t="s">
+      <c r="AQ20" t="s">
         <v>96</v>
       </c>
-      <c r="AQ20" t="s">
+      <c r="AR20" t="s">
         <v>153</v>
       </c>
-      <c r="AR20" t="s">
+      <c r="AS20" t="s">
         <v>154</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AT20" t="s">
         <v>155</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="AU20" t="s">
         <v>156</v>
       </c>
-      <c r="AU20" t="s">
-        <v>80</v>
-      </c>
       <c r="AV20" t="s">
         <v>80</v>
       </c>
@@ -4005,6 +4086,9 @@
         <v>80</v>
       </c>
       <c r="BA20" t="s">
+        <v>80</v>
+      </c>
+      <c r="BB20" t="s">
         <v>80</v>
       </c>
     </row>

--- a/product_data/processing_metadata/C4/PROF_meta.xlsx
+++ b/product_data/processing_metadata/C4/PROF_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{EEE577D7-02F7-48DE-BFA1-A7A142926E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D44B8103-258F-4DD1-ABF4-BE2042E1BF07}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{1750EC67-E50A-4C74-95CA-634517D4538B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5213160F-75F3-41AE-8A87-DC7406490607}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64B97871-A170-45B4-A294-5AEA4BC0E271}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{64B97871-A170-45B4-A294-5AEA4BC0E271}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,9 +435,6 @@
     <t>James Smith</t>
   </si>
   <si>
-    <t>JGOFS</t>
-  </si>
-  <si>
     <t>John Morrison</t>
   </si>
   <si>
@@ -559,6 +556,9 @@
   </si>
   <si>
     <t>33RR20070204_prof</t>
+  </si>
+  <si>
+    <t>BCO-DMO</t>
   </si>
 </sst>
 </file>
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE09AFCF-A20C-400D-B673-54C37F3D477B}">
   <dimension ref="A1:BB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -961,7 +961,7 @@
         <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M1" t="s">
         <v>29</v>
@@ -1122,7 +1122,7 @@
         <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N2" t="s">
         <v>80</v>
@@ -1280,7 +1280,7 @@
         <v>79</v>
       </c>
       <c r="L3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N3" t="s">
         <v>80</v>
@@ -1438,7 +1438,7 @@
         <v>79</v>
       </c>
       <c r="L4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N4" t="s">
         <v>80</v>
@@ -1596,7 +1596,7 @@
         <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N5" t="s">
         <v>80</v>
@@ -1754,7 +1754,7 @@
         <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N6" t="s">
         <v>80</v>
@@ -1912,7 +1912,7 @@
         <v>79</v>
       </c>
       <c r="L7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N7" t="s">
         <v>80</v>
@@ -2070,7 +2070,7 @@
         <v>79</v>
       </c>
       <c r="L8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N8" t="s">
         <v>80</v>
@@ -2228,7 +2228,7 @@
         <v>79</v>
       </c>
       <c r="L9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N9" t="s">
         <v>80</v>
@@ -2386,7 +2386,7 @@
         <v>79</v>
       </c>
       <c r="L10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N10" t="s">
         <v>80</v>
@@ -2544,7 +2544,7 @@
         <v>79</v>
       </c>
       <c r="L11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N11" t="s">
         <v>80</v>
@@ -2702,7 +2702,7 @@
         <v>79</v>
       </c>
       <c r="L12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N12" t="s">
         <v>80</v>
@@ -2860,7 +2860,7 @@
         <v>79</v>
       </c>
       <c r="L13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N13" t="s">
         <v>80</v>
@@ -3018,7 +3018,7 @@
         <v>79</v>
       </c>
       <c r="L14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s">
         <v>80</v>
@@ -3152,10 +3152,10 @@
         <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -3167,22 +3167,22 @@
         <v>76</v>
       </c>
       <c r="H15" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" t="s">
         <v>134</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>135</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
+        <v>168</v>
+      </c>
+      <c r="N15" t="s">
+        <v>80</v>
+      </c>
+      <c r="O15" t="s">
         <v>136</v>
-      </c>
-      <c r="L15" t="s">
-        <v>169</v>
-      </c>
-      <c r="N15" t="s">
-        <v>80</v>
-      </c>
-      <c r="O15" t="s">
-        <v>137</v>
       </c>
       <c r="P15" t="s">
         <v>82</v>
@@ -3191,94 +3191,94 @@
         <v>80</v>
       </c>
       <c r="R15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U15" t="s">
         <v>122</v>
       </c>
       <c r="V15" t="s">
+        <v>138</v>
+      </c>
+      <c r="W15" t="s">
+        <v>80</v>
+      </c>
+      <c r="X15" t="s">
         <v>139</v>
       </c>
-      <c r="W15" t="s">
-        <v>80</v>
-      </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>140</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA15" t="s">
         <v>141</v>
       </c>
-      <c r="Z15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>142</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>143</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE15" t="s">
         <v>144</v>
       </c>
-      <c r="AD15" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>145</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>146</v>
       </c>
       <c r="AG15" t="s">
         <v>88</v>
       </c>
       <c r="AH15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI15" t="s">
         <v>90</v>
       </c>
       <c r="AJ15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK15" t="s">
         <v>129</v>
       </c>
       <c r="AL15" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM15" t="s">
         <v>149</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AN15" t="s">
         <v>150</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>151</v>
       </c>
       <c r="AO15" t="s">
         <v>130</v>
       </c>
       <c r="AP15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AQ15" t="s">
         <v>96</v>
       </c>
       <c r="AR15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS15" t="s">
         <v>153</v>
       </c>
-      <c r="AS15" t="s">
+      <c r="AT15" t="s">
         <v>154</v>
       </c>
-      <c r="AT15" t="s">
+      <c r="AU15" t="s">
         <v>155</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>156</v>
       </c>
       <c r="AV15" t="s">
         <v>80</v>
@@ -3310,10 +3310,10 @@
         <v>72</v>
       </c>
       <c r="C16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -3325,22 +3325,22 @@
         <v>76</v>
       </c>
       <c r="H16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" t="s">
         <v>134</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>135</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
+        <v>169</v>
+      </c>
+      <c r="N16" t="s">
+        <v>80</v>
+      </c>
+      <c r="O16" t="s">
         <v>136</v>
-      </c>
-      <c r="L16" t="s">
-        <v>170</v>
-      </c>
-      <c r="N16" t="s">
-        <v>80</v>
-      </c>
-      <c r="O16" t="s">
-        <v>137</v>
       </c>
       <c r="P16" t="s">
         <v>82</v>
@@ -3349,94 +3349,94 @@
         <v>80</v>
       </c>
       <c r="R16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U16" t="s">
         <v>122</v>
       </c>
       <c r="V16" t="s">
+        <v>138</v>
+      </c>
+      <c r="W16" t="s">
+        <v>80</v>
+      </c>
+      <c r="X16" t="s">
         <v>139</v>
       </c>
-      <c r="W16" t="s">
-        <v>80</v>
-      </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>140</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA16" t="s">
         <v>141</v>
       </c>
-      <c r="Z16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>142</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>143</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE16" t="s">
         <v>144</v>
       </c>
-      <c r="AD16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>145</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>146</v>
       </c>
       <c r="AG16" t="s">
         <v>88</v>
       </c>
       <c r="AH16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI16" t="s">
         <v>90</v>
       </c>
       <c r="AJ16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK16" t="s">
         <v>129</v>
       </c>
       <c r="AL16" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM16" t="s">
         <v>149</v>
       </c>
-      <c r="AM16" t="s">
+      <c r="AN16" t="s">
         <v>150</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>151</v>
       </c>
       <c r="AO16" t="s">
         <v>130</v>
       </c>
       <c r="AP16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AQ16" t="s">
         <v>96</v>
       </c>
       <c r="AR16" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS16" t="s">
         <v>153</v>
       </c>
-      <c r="AS16" t="s">
+      <c r="AT16" t="s">
         <v>154</v>
       </c>
-      <c r="AT16" t="s">
+      <c r="AU16" t="s">
         <v>155</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>156</v>
       </c>
       <c r="AV16" t="s">
         <v>80</v>
@@ -3468,10 +3468,10 @@
         <v>72</v>
       </c>
       <c r="C17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
@@ -3483,22 +3483,22 @@
         <v>76</v>
       </c>
       <c r="H17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" t="s">
         <v>134</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>135</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
+        <v>170</v>
+      </c>
+      <c r="N17" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" t="s">
         <v>136</v>
-      </c>
-      <c r="L17" t="s">
-        <v>171</v>
-      </c>
-      <c r="N17" t="s">
-        <v>80</v>
-      </c>
-      <c r="O17" t="s">
-        <v>137</v>
       </c>
       <c r="P17" t="s">
         <v>82</v>
@@ -3507,94 +3507,94 @@
         <v>80</v>
       </c>
       <c r="R17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="U17" t="s">
         <v>122</v>
       </c>
       <c r="V17" t="s">
+        <v>138</v>
+      </c>
+      <c r="W17" t="s">
+        <v>80</v>
+      </c>
+      <c r="X17" t="s">
         <v>139</v>
       </c>
-      <c r="W17" t="s">
-        <v>80</v>
-      </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>140</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA17" t="s">
         <v>141</v>
       </c>
-      <c r="Z17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>142</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>143</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE17" t="s">
         <v>144</v>
       </c>
-      <c r="AD17" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>145</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>146</v>
       </c>
       <c r="AG17" t="s">
         <v>88</v>
       </c>
       <c r="AH17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI17" t="s">
         <v>90</v>
       </c>
       <c r="AJ17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK17" t="s">
         <v>129</v>
       </c>
       <c r="AL17" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM17" t="s">
         <v>149</v>
       </c>
-      <c r="AM17" t="s">
+      <c r="AN17" t="s">
         <v>150</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>151</v>
       </c>
       <c r="AO17" t="s">
         <v>130</v>
       </c>
       <c r="AP17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AQ17" t="s">
         <v>96</v>
       </c>
       <c r="AR17" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS17" t="s">
         <v>153</v>
       </c>
-      <c r="AS17" t="s">
+      <c r="AT17" t="s">
         <v>154</v>
       </c>
-      <c r="AT17" t="s">
+      <c r="AU17" t="s">
         <v>155</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>156</v>
       </c>
       <c r="AV17" t="s">
         <v>80</v>
@@ -3626,7 +3626,7 @@
         <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" t="s">
         <v>113</v>
@@ -3650,7 +3650,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N18" t="s">
         <v>118</v>
@@ -3802,13 +3802,13 @@
         <v>132</v>
       </c>
       <c r="I19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K19" t="s">
-        <v>174</v>
+      <c r="L19" t="s">
+        <v>173</v>
       </c>
       <c r="N19" t="s">
         <v>118</v>
@@ -3942,10 +3942,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -3957,22 +3957,22 @@
         <v>76</v>
       </c>
       <c r="H20" t="s">
+        <v>133</v>
+      </c>
+      <c r="I20" t="s">
         <v>134</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>135</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
+        <v>171</v>
+      </c>
+      <c r="N20" t="s">
+        <v>80</v>
+      </c>
+      <c r="O20" t="s">
         <v>136</v>
-      </c>
-      <c r="L20" t="s">
-        <v>172</v>
-      </c>
-      <c r="N20" t="s">
-        <v>80</v>
-      </c>
-      <c r="O20" t="s">
-        <v>137</v>
       </c>
       <c r="P20" t="s">
         <v>82</v>
@@ -3981,94 +3981,94 @@
         <v>80</v>
       </c>
       <c r="R20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="S20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="T20" t="s">
+        <v>137</v>
+      </c>
+      <c r="U20" t="s">
+        <v>164</v>
+      </c>
+      <c r="V20" t="s">
         <v>138</v>
       </c>
-      <c r="U20" t="s">
-        <v>165</v>
-      </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
+        <v>80</v>
+      </c>
+      <c r="X20" t="s">
         <v>139</v>
       </c>
-      <c r="W20" t="s">
-        <v>80</v>
-      </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>140</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA20" t="s">
         <v>141</v>
       </c>
-      <c r="Z20" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>142</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>143</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE20" t="s">
         <v>144</v>
       </c>
-      <c r="AD20" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>145</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>146</v>
       </c>
       <c r="AG20" t="s">
         <v>88</v>
       </c>
       <c r="AH20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AI20" t="s">
         <v>90</v>
       </c>
       <c r="AJ20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AK20" t="s">
         <v>129</v>
       </c>
       <c r="AL20" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM20" t="s">
         <v>149</v>
       </c>
-      <c r="AM20" t="s">
+      <c r="AN20" t="s">
         <v>150</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>151</v>
       </c>
       <c r="AO20" t="s">
         <v>130</v>
       </c>
       <c r="AP20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AQ20" t="s">
         <v>96</v>
       </c>
       <c r="AR20" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS20" t="s">
         <v>153</v>
       </c>
-      <c r="AS20" t="s">
+      <c r="AT20" t="s">
         <v>154</v>
       </c>
-      <c r="AT20" t="s">
+      <c r="AU20" t="s">
         <v>155</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>156</v>
       </c>
       <c r="AV20" t="s">
         <v>80</v>
